--- a/Metrics/Folds.xlsx
+++ b/Metrics/Folds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardotanzi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardotanzi/Desktop/MasterThesis/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -557,21 +557,21 @@
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>SUM(C2:G2)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1">
         <f>B2/B8</f>
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -579,21 +579,21 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <f>B3+D3+E3+F3+G3</f>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1">
         <f>C3/C8</f>
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -601,21 +601,21 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <f>B4+C4+E4+F4+G4</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1">
         <f>D4/D8</f>
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
       </c>
       <c r="J8" s="6">
         <f>AVERAGE(J2:J7)</f>
-        <v>0.83333333333333337</v>
+        <v>0.85666666666666658</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -672,19 +672,19 @@
       </c>
       <c r="B9">
         <f>SUM(B3:B7)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <f>SUM(C4:C7)+C2</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <f>SUM(D5:D7)+SUM(D2:D3)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <f>SUM(H2:H7)</f>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
       </c>
       <c r="B11">
         <f>B2+C3+D4+E5+F6+G7</f>
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -715,11 +715,11 @@
       </c>
       <c r="B12" s="1">
         <f>B11/B10</f>
-        <v>0.83333333333333337</v>
+        <v>0.85666666666666669</v>
       </c>
       <c r="C12" s="1">
         <f>2*B11/(2*B11+B14+B15)</f>
-        <v>0.83333333333333337</v>
+        <v>0.85666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
       </c>
       <c r="B14">
         <f>SUM(B9:G9)</f>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
       </c>
       <c r="B15">
         <f>SUM(H2:H7)</f>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,7 +746,7 @@
       </c>
       <c r="B17" s="1">
         <f>B11/(B11+B14)</f>
-        <v>0.83333333333333337</v>
+        <v>0.85666666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
       </c>
       <c r="B18" s="1">
         <f>B11/(B11+B15)</f>
-        <v>0.83333333333333337</v>
+        <v>0.85666666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
       </c>
       <c r="B19" s="1">
         <f>B11/(B14+B11)</f>
-        <v>0.83333333333333337</v>
+        <v>0.85666666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
       </c>
       <c r="B20" s="1">
         <f>2*B11/(2*B11+B14+B15)</f>
-        <v>0.83333333333333337</v>
+        <v>0.85666666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
       </c>
       <c r="B28">
         <f>B2</f>
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
       </c>
       <c r="B29">
         <f>B11-B28</f>
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
       </c>
       <c r="B30">
         <f>SUM(B3:B7)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -832,7 +832,7 @@
       </c>
       <c r="B31">
         <f>SUM(C2:G2)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -841,7 +841,7 @@
       </c>
       <c r="B32" s="1">
         <f>(B28+B29)/(B28+B30+B29+B31)</f>
-        <v>0.88028169014084512</v>
+        <v>0.90492957746478875</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
       </c>
       <c r="B33" s="1">
         <f>B28/(B28+B30)</f>
-        <v>0.78947368421052633</v>
+        <v>0.89247311827956988</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
       </c>
       <c r="B34" s="1">
         <f>B28/(B28+B31)</f>
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -868,7 +868,7 @@
       </c>
       <c r="B35" s="1">
         <f>B29/(B30+B29)</f>
-        <v>0.86956521739130432</v>
+        <v>0.94565217391304346</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
       </c>
       <c r="B36" s="1">
         <f>2*B28/(2*B28+B30+B31)</f>
-        <v>0.84112149532710279</v>
+        <v>0.86010362694300513</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
       </c>
       <c r="B39">
         <f>C3</f>
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
       </c>
       <c r="B40">
         <f>B11-B39</f>
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
       </c>
       <c r="B41">
         <f>SUM(C4:C7)+C2</f>
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
       </c>
       <c r="B42">
         <f>SUM(D3:G3)+B3</f>
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
       </c>
       <c r="B43" s="1">
         <f>(B39+B40)/(B39+B41+B40+B42)</f>
-        <v>0.86505190311418689</v>
+        <v>0.87118644067796613</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -936,7 +936,7 @@
       </c>
       <c r="B44" s="1">
         <f>B39/(B39+B41)</f>
-        <v>0.9178082191780822</v>
+        <v>0.79807692307692313</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
       </c>
       <c r="B45" s="1">
         <f>B39/(B39+B42)</f>
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -954,7 +954,7 @@
       </c>
       <c r="B46" s="1">
         <f>B40/(B41+B40)</f>
-        <v>0.96825396825396826</v>
+        <v>0.89230769230769236</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
       </c>
       <c r="B47" s="1">
         <f>2*B39/(2*B39+B41+B42)</f>
-        <v>0.77456647398843925</v>
+        <v>0.81372549019607843</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
       </c>
       <c r="B50">
         <f>D4</f>
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
       </c>
       <c r="B51">
         <f>B11-B50</f>
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="B52">
         <f>D2+D3+D5+D6+D7</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B53">
         <f>B4+C4+E4+F4+G4</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B54" s="1">
         <f>(B50+B51)/(B50+B52+B51+B53)</f>
-        <v>0.90252707581227432</v>
+        <v>0.92446043165467628</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B55" s="1">
         <f>B50/(B50+B52)</f>
-        <v>0.82300884955752207</v>
+        <v>0.88349514563106801</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B56" s="1">
         <f>B50/(B50+B53)</f>
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B57" s="1">
         <f>B51/(B52+B51)</f>
-        <v>0.88700564971751417</v>
+        <v>0.93258426966292129</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B58" s="1">
         <f>2*B50/(2*B50+B52+B53)</f>
-        <v>0.87323943661971826</v>
+        <v>0.89655172413793105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
